--- a/Book 2.xlsx
+++ b/Book 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF08797-15EA-4398-82B2-EA74E50FCB4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F92BAF-76BD-4523-A435-4D9DB1638D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1BEEBC98-CC85-444C-A6EC-4B12DC81787B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="75">
   <si>
     <t>Description</t>
   </si>
@@ -344,13 +344,121 @@
     <t>while clicking on that  menu its open the LUMA webside</t>
   </si>
   <si>
+    <t>while cllicking on that wish list its working</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> check  bags, fitness Equipment, watches button</t>
+  </si>
+  <si>
+    <t>while clicking  on that all button its show to product</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">check </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BOTTOMS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">check </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TOP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button </t>
+    </r>
+  </si>
+  <si>
+    <t>check SEARCH menu</t>
+  </si>
+  <si>
+    <t>while clicking on that menu its working</t>
+  </si>
+  <si>
+    <t>while enterting  email clicking on that button its working</t>
+  </si>
+  <si>
+    <t>check to customer service menu</t>
+  </si>
+  <si>
+    <t>check privacy and cookie policy</t>
+  </si>
+  <si>
+    <r>
+      <t>check to</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> SUBSCRIBE button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>check ADVANCE SEARCH option</t>
+  </si>
+  <si>
+    <t>check order and returns option</t>
+  </si>
+  <si>
+    <t>check contact us option</t>
+  </si>
+  <si>
     <t>check to sign out button</t>
   </si>
   <si>
-    <t>while clicking on that sigh out button its working</t>
-  </si>
-  <si>
-    <t>while cllicking on that wish list its working</t>
+    <t>while clicking on that sign out button its working</t>
   </si>
 </sst>
 </file>
@@ -394,7 +502,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -406,6 +514,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -720,10 +831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE11F8D3-3A59-45F4-ADFD-EEF082581FF9}">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -796,7 +907,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1050,88 +1161,221 @@
         <v>301</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="C30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>302</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
+        <v>303</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
         <v>400</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C34" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>401</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>500</v>
+        <v>401</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C35" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>501</v>
+        <v>402</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>600</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>403</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>500</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
+        <v>502</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>503</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>600</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
         <v>700</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>800</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B46" t="s">
         <v>57</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C46" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C45" t="s">
-        <v>60</v>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>900</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1000</v>
+      </c>
+      <c r="B48" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1100</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1200</v>
+      </c>
+      <c r="B50" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1300</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C51" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1400</v>
+      </c>
+      <c r="B52" t="s">
+        <v>71</v>
+      </c>
+      <c r="C52" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1500</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C53" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1600</v>
+      </c>
+      <c r="B54" t="s">
+        <v>73</v>
+      </c>
+      <c r="C54" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
